--- a/Poster TEX/Comments.xlsx
+++ b/Poster TEX/Comments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma1187200\Documents\GitHub\IMPS2024-Anonymization-of-data-for-open-science-in-psychology\Poster TEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C50D906-A91F-46EA-8A8B-4D19C677160F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E0BA44-2236-4883-A570-4A8B565AC330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>- I suggest that you name yourself and Matthias as authors or yourself, me and Matthias (so that Matthias is last either way, because last author typically means supervisor of PhD project in our field)</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>Are the results so bad, because there are only 301 observations in the data set and a weak correlation structure? Are these the reasons?</t>
-  </si>
-  <si>
-    <t>The “*” and “**” comments in the document:</t>
   </si>
   <si>
     <r>
@@ -417,11 +414,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D31"/>
+  <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="107" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="107" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -817,7 +814,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>17</v>
@@ -828,7 +825,7 @@
     </row>
     <row r="3" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>17</v>
@@ -839,7 +836,7 @@
     </row>
     <row r="4" spans="2:4" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>17</v>
@@ -850,7 +847,7 @@
     </row>
     <row r="5" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>17</v>
@@ -861,7 +858,7 @@
     </row>
     <row r="6" spans="2:4" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>17</v>
@@ -872,7 +869,7 @@
     </row>
     <row r="7" spans="2:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>17</v>
@@ -882,8 +879,8 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="80" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
-        <v>27</v>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>17</v>
@@ -893,17 +890,17 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="9" t="s">
-        <v>28</v>
+      <c r="B10" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>17</v>
@@ -913,12 +910,12 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -929,89 +926,95 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C14" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C15" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="C19" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C20" s="5" t="s">
-        <v>17</v>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C21" s="5" t="s">
-        <v>17</v>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -1019,71 +1022,47 @@
         <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Poster TEX/Comments.xlsx
+++ b/Poster TEX/Comments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma1187200\Documents\GitHub\IMPS2024-Anonymization-of-data-for-open-science-in-psychology\Poster TEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E0BA44-2236-4883-A570-4A8B565AC330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABEAF0-0B08-4690-85EF-DA935B0BA8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>- I suggest that you name yourself and Matthias as authors or yourself, me and Matthias (so that Matthias is last either way, because last author typically means supervisor of PhD project in our field)</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>Later</t>
   </si>
   <si>
     <t>The title of the poster has already been published on the conference website, so it can't just be changed to a completely new title. The website says:  
@@ -261,6 +258,27 @@
   <si>
     <t>Ok.
 Removed</t>
+  </si>
+  <si>
+    <t>New data</t>
+  </si>
+  <si>
+    <t>Rephrased</t>
+  </si>
+  <si>
+    <t>I just used function for it</t>
+  </si>
+  <si>
+    <t>synthpop now used only for synthetization, graphs are my custom</t>
+  </si>
+  <si>
+    <t>New data are better described</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -295,7 +313,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,12 +334,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -401,13 +413,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -418,6 +427,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -801,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="107" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,234 +829,263 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="e" vm="1">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6" t="e" vm="2">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="e" vm="3">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="e" vm="4">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="e" vm="5">
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B9" s="8"/>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B11" s="8"/>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="80" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="6" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B9" s="9"/>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
+    </row>
+    <row r="13" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    <row r="14" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="8"/>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="9"/>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="4" t="s">
+    <row r="18" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B18" s="9"/>
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    <row r="19" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="9"/>
+      <c r="C19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="20" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>1</v>
+      <c r="D21" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>11</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="3" t="s">
-        <v>9</v>
+      <c r="B26" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>12</v>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
@@ -1051,7 +1095,7 @@
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1062,14 +1106,17 @@
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Poster TEX/Comments.xlsx
+++ b/Poster TEX/Comments.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma1187200\Documents\GitHub\IMPS2024-Anonymization-of-data-for-open-science-in-psychology\Poster TEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABEAF0-0B08-4690-85EF-DA935B0BA8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D37DB3-C7C9-40CB-83B8-8CB0D4D41F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4960" yWindow="770" windowWidth="14240" windowHeight="10480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="v3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -817,7 +817,7 @@
   <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Poster TEX/Comments.xlsx
+++ b/Poster TEX/Comments.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma1187200\Documents\GitHub\IMPS2024-Anonymization-of-data-for-open-science-in-psychology\Poster TEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D37DB3-C7C9-40CB-83B8-8CB0D4D41F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25131C93-FE89-42FC-B4AB-9DA2C44A4573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="770" windowWidth="14240" windowHeight="10480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="v3" sheetId="1" r:id="rId1"/>
+    <sheet name="v4" sheetId="2" r:id="rId1"/>
+    <sheet name="v3" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="8">
+  <futureMetadata name="XLRICHVALUE" count="19">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -97,8 +98,85 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="8">
+  <valueMetadata count="19">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -122,13 +200,46 @@
     </bk>
     <bk>
       <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
+    </bk>
+    <bk>
+      <rc t="1" v="16"/>
+    </bk>
+    <bk>
+      <rc t="1" v="17"/>
+    </bk>
+    <bk>
+      <rc t="1" v="18"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="45">
   <si>
     <t>- I suggest that you name yourself and Matthias as authors or yourself, me and Matthias (so that Matthias is last either way, because last author typically means supervisor of PhD project in our field)</t>
   </si>
@@ -280,12 +391,65 @@
   <si>
     <t>OK</t>
   </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>There are two items for methods of SDC, first one is SDC, second is synthetic data generation. But synthetic data generation is an SDC method. Maybe to use Traditional anonymization vs Synthetic data generation?</t>
+  </si>
+  <si>
+    <t>I have no idea what you mean. Rephrased</t>
+  </si>
+  <si>
+    <t>Deleted the text. Rephrased</t>
+  </si>
+  <si>
+    <t>Harmonized</t>
+  </si>
+  <si>
+    <r>
+      <t>*… Personally, I would rather distinguish between joint modeling (typically GAN) and conditional modeling methods and mention that both, parametric and non-parametric methods can be applied. Also: “Non-parametric methods (machine learning, neural networks…)” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t></t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t> This is not quite correct, since many ML methods are parametric.</t>
+    </r>
+  </si>
+  <si>
+    <t>Also some statistical methods are non parametric, whatever, rewritten</t>
+  </si>
+  <si>
+    <t>**… Remark about “openly”. When we don’t know about the disclosure risk, we might not overpromise that we aim to share data openly. Maybe let it as it is, but in general in that community it is an overpromise and underdelivery in terms of being able to share data openly, because of the remaining risk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,8 +476,14 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -435,6 +611,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,6 +648,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5346700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA280E60-29A0-8B81-8258-19CD58D902F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7581900" cy="1822450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,7 +757,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="19">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -524,6 +788,50 @@
   </rv>
   <rv s="0">
     <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>11</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>12</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>13</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>14</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>15</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>16</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>17</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>18</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -548,6 +856,17 @@
   <rel r:id="rId6"/>
   <rel r:id="rId7"/>
   <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
+  <rel r:id="rId11"/>
+  <rel r:id="rId12"/>
+  <rel r:id="rId13"/>
+  <rel r:id="rId14"/>
+  <rel r:id="rId15"/>
+  <rel r:id="rId16"/>
+  <rel r:id="rId17"/>
+  <rel r:id="rId18"/>
+  <rel r:id="rId19"/>
 </richValueRels>
 </file>
 
@@ -813,11 +1132,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7214B319-3652-4131-A50E-546DA0A734C4}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="121.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="59" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="78" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="78.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="5" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B9:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D28"/>
+  <dimension ref="B2:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A6" zoomScale="107" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,180 +1317,182 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="5" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="5" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="80" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B10" s="8"/>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
+    <row r="11" spans="2:4" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
       <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B12" s="8"/>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="2:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="10" t="s">
+    <row r="14" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
+    <row r="16" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="9"/>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="9"/>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
+    <row r="18" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="29" x14ac:dyDescent="0.35">
@@ -1010,93 +1501,91 @@
         <v>16</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B20" s="9"/>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="B20" s="9"/>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="B21" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="21" spans="2:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="6" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
@@ -1107,16 +1596,27 @@
         <v>7</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
